--- a/public/import/weekly_template_DnD.xlsx
+++ b/public/import/weekly_template_DnD.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\2022\AMPM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA0FBD5-E08D-4135-9EB6-57A2F4EE26D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
+  <calcPr calcId="152511" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -50,34 +49,34 @@
     <t>NON</t>
   </si>
   <si>
-    <t>Kirim AMPM tepat waktu</t>
-  </si>
-  <si>
-    <t>Rekap data Customer Toko Mas An An &amp; Complete Mulia</t>
-  </si>
-  <si>
-    <t>Helpdesk &amp; Monitoring Toko Complete Mulia &amp; Toko Mas An An</t>
-  </si>
-  <si>
-    <t>Trial Pemasangan Router untuk Complete Me</t>
-  </si>
-  <si>
-    <t>Follow Up error Security Sistem di Complete Mulia</t>
-  </si>
-  <si>
-    <t>Cicil Revisi bundling All Menu Amazy</t>
-  </si>
-  <si>
-    <t>Perbaikan Printer Penjualan Toko Mas An An</t>
-  </si>
-  <si>
-    <t>Revisi Bundling toko Complete Me Request Bu Nove</t>
+    <t xml:space="preserve">Tarik Data Invoice Suplier Complete &amp; Online  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekap Soft Copy Pembayaran edc dan koperasi </t>
+  </si>
+  <si>
+    <t>rekap arsip pembayaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring SJ belum diinput </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create disk ajuan toko </t>
+  </si>
+  <si>
+    <t>Compere Data Sj Invoice &amp;Retur Suplier Cs Online, Suplier PT DST dan Suplier Complete Week 23</t>
+  </si>
+  <si>
+    <t>3Rekap Soft Copy Pembayaran Nabung Week 22</t>
+  </si>
+  <si>
+    <t>Rekap Pembayaran Nota Retur Suplier Complete dan PT DST Week 23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +208,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,18 +416,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -454,10 +453,10 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -468,10 +467,10 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -482,10 +481,10 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -496,10 +495,10 @@
         <v>2022</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -510,10 +509,10 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -524,10 +523,10 @@
         <v>2022</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -538,10 +537,10 @@
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -552,10 +551,10 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>

--- a/public/import/weekly_template_DnD.xlsx
+++ b/public/import/weekly_template_DnD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ALL FILE JOBDESK\DATA MALA\WEEKLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>year</t>
   </si>
@@ -49,39 +49,63 @@
     <t>NON</t>
   </si>
   <si>
-    <t xml:space="preserve">Tarik Data Invoice Suplier Complete &amp; Online  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rekap Soft Copy Pembayaran edc dan koperasi </t>
-  </si>
-  <si>
-    <t>rekap arsip pembayaran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring SJ belum diinput </t>
-  </si>
-  <si>
-    <t xml:space="preserve">create disk ajuan toko </t>
-  </si>
-  <si>
-    <t>Compere Data Sj Invoice &amp;Retur Suplier Cs Online, Suplier PT DST dan Suplier Complete Week 23</t>
-  </si>
-  <si>
-    <t>3Rekap Soft Copy Pembayaran Nabung Week 22</t>
-  </si>
-  <si>
-    <t>Rekap Pembayaran Nota Retur Suplier Complete dan PT DST Week 23</t>
+    <t>Kirim AMPM tepat waktu</t>
+  </si>
+  <si>
+    <t>Cek Pembukuan CM,HY,Amazy</t>
+  </si>
+  <si>
+    <t>Cek Update Omset CM,HY,Amazy</t>
+  </si>
+  <si>
+    <t>Pengecekan Mutasi Trx Jurnal ID EDC+E-Wallet</t>
+  </si>
+  <si>
+    <t>Pengecekan Setoran Kantin,Nota Kantin &amp; Proses di CSA</t>
+  </si>
+  <si>
+    <t>Update Pengajuan Utang Bank PMCME,PMHY,&amp; BPAM</t>
+  </si>
+  <si>
+    <t>Rekap bank tampungan</t>
+  </si>
+  <si>
+    <t>Proses penginputan edc e-wallet Cm Hy Amazy</t>
+  </si>
+  <si>
+    <t>Pengarsipan Dokumen arsip online</t>
+  </si>
+  <si>
+    <t>Buat Invoice Catering</t>
+  </si>
+  <si>
+    <t>Cek biaya CM &amp; AMAZY</t>
+  </si>
+  <si>
+    <t>Report Laporan laba rugi cmhy januari-juli</t>
+  </si>
+  <si>
+    <t>Rekonsiliasi Bank BBNI kantin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -107,14 +131,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,18 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -453,10 +481,10 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -467,10 +495,10 @@
         <v>2022</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -481,10 +509,10 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -495,10 +523,10 @@
         <v>2022</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -509,10 +537,10 @@
         <v>2022</v>
       </c>
       <c r="B6">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -523,10 +551,10 @@
         <v>2022</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -537,10 +565,10 @@
         <v>2022</v>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -551,12 +579,82 @@
         <v>2022</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13">
+        <v>34</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
     </row>
